--- a/files/deliveries.xlsx
+++ b/files/deliveries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vomak\OneDrive\Plocha\FOFR\eshop-excel-script-main\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\srv\excel-scripts\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA732820-0E5D-4EB0-AD2D-A1287B7133C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F902DF-3F95-4B1F-A973-557DE0E6F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="23235" windowHeight="11235" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Produkty" sheetId="2" r:id="rId1"/>
@@ -87,9 +87,6 @@
     <t>merge</t>
   </si>
   <si>
-    <t>štítek</t>
-  </si>
-  <si>
     <t>1737</t>
   </si>
   <si>
@@ -1246,6 +1243,9 @@
   </si>
   <si>
     <t>orderItemVariantName</t>
+  </si>
+  <si>
+    <t>labels</t>
   </si>
 </sst>
 </file>
@@ -1294,10 +1294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1377,22 +1376,22 @@
   <autoFilter ref="A1:Q74" xr:uid="{640FCE88-30B5-4AE9-93EA-3D4C63C689DC}"/>
   <tableColumns count="17">
     <tableColumn id="1" xr3:uid="{E88464B4-47E0-44E0-856A-8E88EA406EC3}" uniqueName="1" name="CODE" queryTableFieldId="1"/>
-    <tableColumn id="14" xr3:uid="{95B57929-F0BB-40F0-890A-02329F743B3E}" uniqueName="14" name="LAST4" queryTableFieldId="14" dataDxfId="0"/>
+    <tableColumn id="14" xr3:uid="{95B57929-F0BB-40F0-890A-02329F743B3E}" uniqueName="14" name="LAST4" queryTableFieldId="14" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{8D8DA7AD-50D3-4432-AF05-0F85B2B73213}" uniqueName="2" name="DOBIRKA" queryTableFieldId="2"/>
     <tableColumn id="3" xr3:uid="{D202AD42-8CDC-4B83-BBBB-F9544E7617CA}" uniqueName="3" name="VARSY" queryTableFieldId="3"/>
-    <tableColumn id="4" xr3:uid="{BB065A92-D19E-4BF2-AC27-C660206855C2}" uniqueName="4" name="PRIJEMCE_FIRMA" queryTableFieldId="4" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{09871ADC-8503-49DA-87AC-4FAC09E7A687}" uniqueName="5" name="PRIJEMCE_KONTAKT" queryTableFieldId="5" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{FB9FC7E0-CD50-46DE-B935-2F18C6562295}" uniqueName="6" name="PRIJEMCE_ULICE" queryTableFieldId="6" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{634B2614-05CC-495C-ABE0-23897283B6C9}" uniqueName="7" name="PRIJEMCE_MESTO" queryTableFieldId="7" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{BB065A92-D19E-4BF2-AC27-C660206855C2}" uniqueName="4" name="PRIJEMCE_FIRMA" queryTableFieldId="4" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{09871ADC-8503-49DA-87AC-4FAC09E7A687}" uniqueName="5" name="PRIJEMCE_KONTAKT" queryTableFieldId="5" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FB9FC7E0-CD50-46DE-B935-2F18C6562295}" uniqueName="6" name="PRIJEMCE_ULICE" queryTableFieldId="6" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{634B2614-05CC-495C-ABE0-23897283B6C9}" uniqueName="7" name="PRIJEMCE_MESTO" queryTableFieldId="7" dataDxfId="5"/>
     <tableColumn id="8" xr3:uid="{C86F8B2E-E972-4BAB-9014-5A234F192500}" uniqueName="8" name="PRIJEMCE_PSC" queryTableFieldId="8"/>
-    <tableColumn id="9" xr3:uid="{90AABEF5-E0F8-45F9-9C37-24DE1C69EE46}" uniqueName="9" name="PRIJEMCE_STAT" queryTableFieldId="9" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{9EDE785A-99FC-48D5-953B-17A7621AF2C2}" uniqueName="10" name="PRIJEMCE_EMAIL" queryTableFieldId="10" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{90AABEF5-E0F8-45F9-9C37-24DE1C69EE46}" uniqueName="9" name="PRIJEMCE_STAT" queryTableFieldId="9" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{9EDE785A-99FC-48D5-953B-17A7621AF2C2}" uniqueName="10" name="PRIJEMCE_EMAIL" queryTableFieldId="10" dataDxfId="3"/>
     <tableColumn id="11" xr3:uid="{9B807659-D911-4955-B419-96BD42EA807E}" uniqueName="11" name="PRIJEMCE_TELEFON" queryTableFieldId="11"/>
-    <tableColumn id="12" xr3:uid="{59F73D5C-0642-4F73-9E19-7EE80668D054}" uniqueName="12" name="orderItemName" queryTableFieldId="12" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{59F73D5C-0642-4F73-9E19-7EE80668D054}" uniqueName="12" name="orderItemName" queryTableFieldId="12" dataDxfId="2"/>
     <tableColumn id="13" xr3:uid="{952F3BAD-4BFB-4937-A92E-E8BDECA3934A}" uniqueName="13" name="ZBOZI_KUSY" queryTableFieldId="13"/>
     <tableColumn id="18" xr3:uid="{4A135270-1E36-4092-BDE3-D994C61E727B}" uniqueName="18" name="orderItemVariantName" queryTableFieldId="21"/>
-    <tableColumn id="15" xr3:uid="{4CA03F9F-F783-4F4F-9A21-B63402F0FD90}" uniqueName="15" name="merge" queryTableFieldId="16" dataDxfId="2"/>
-    <tableColumn id="16" xr3:uid="{FBEF0A1B-310A-4A8B-9C0E-4D07CE7D7ABE}" uniqueName="16" name="štítek" queryTableFieldId="17" dataDxfId="1"/>
+    <tableColumn id="15" xr3:uid="{4CA03F9F-F783-4F4F-9A21-B63402F0FD90}" uniqueName="15" name="merge" queryTableFieldId="16" dataDxfId="1"/>
+    <tableColumn id="16" xr3:uid="{FBEF0A1B-310A-4A8B-9C0E-4D07CE7D7ABE}" uniqueName="16" name="labels" queryTableFieldId="17" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1664,7 +1663,7 @@
   <dimension ref="A1:Q74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,13 +1730,13 @@
         <v>13</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="P1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -1745,22 +1744,22 @@
         <v>92301737</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="I2">
         <v>68710</v>
@@ -1769,283 +1768,283 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2">
         <v>420721635961</v>
       </c>
       <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
       </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" t="s">
         <v>25</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>92301737</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>17</v>
+      <c r="B3" t="s">
+        <v>16</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="I3">
         <v>68710</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
       </c>
       <c r="L3">
         <v>420721635961</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" t="s">
         <v>29</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>92301777</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>31</v>
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" t="s">
         <v>34</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I4">
         <v>56353</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>36</v>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>35</v>
       </c>
       <c r="L4">
         <v>420792939517</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
         <v>37</v>
       </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="2" t="s">
+      <c r="Q4" t="s">
         <v>39</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>92301777</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>31</v>
+      <c r="B5" t="s">
+        <v>30</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" t="s">
         <v>34</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I5">
         <v>56353</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>36</v>
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
       </c>
       <c r="L5">
         <v>420792939517</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
         <v>41</v>
       </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>42</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="Q5" t="s">
         <v>43</v>
-      </c>
-      <c r="Q5" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>92301777</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
+      <c r="B6" t="s">
+        <v>30</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I6">
         <v>56353</v>
       </c>
-      <c r="J6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>36</v>
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>35</v>
       </c>
       <c r="L6">
         <v>420792939517</v>
       </c>
-      <c r="M6" s="2" t="s">
-        <v>45</v>
+      <c r="M6" t="s">
+        <v>44</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" t="s">
         <v>46</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="Q6" t="s">
         <v>47</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>92301777</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>31</v>
+      <c r="B7" t="s">
+        <v>30</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" t="s">
         <v>34</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="I7">
         <v>56353</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>36</v>
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>35</v>
       </c>
       <c r="L7">
         <v>420792939517</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>49</v>
+      <c r="M7" t="s">
+        <v>48</v>
       </c>
       <c r="N7">
         <v>2</v>
       </c>
       <c r="O7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" t="s">
         <v>51</v>
-      </c>
-      <c r="Q7" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>92301782</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>53</v>
+      <c r="B8" t="s">
+        <v>52</v>
       </c>
       <c r="C8">
         <v>6683</v>
@@ -2053,52 +2052,52 @@
       <c r="D8">
         <v>92301782</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="G8" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" t="s">
         <v>56</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I8">
         <v>57101</v>
       </c>
-      <c r="J8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>58</v>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
       </c>
       <c r="L8">
         <v>420739280632</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" t="s">
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="s">
         <v>59</v>
       </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8" t="s">
-        <v>42</v>
-      </c>
-      <c r="P8" s="2" t="s">
+      <c r="Q8" t="s">
         <v>60</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>92301782</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>53</v>
+      <c r="B9" t="s">
+        <v>52</v>
       </c>
       <c r="C9">
         <v>6683</v>
@@ -2106,52 +2105,52 @@
       <c r="D9">
         <v>92301782</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="G9" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" t="s">
         <v>56</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I9">
         <v>57101</v>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>58</v>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>57</v>
       </c>
       <c r="L9">
         <v>420739280632</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" t="s">
+        <v>61</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" t="s">
         <v>62</v>
       </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="Q9" t="s">
         <v>63</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>92301782</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
+      <c r="B10" t="s">
+        <v>52</v>
       </c>
       <c r="C10">
         <v>6683</v>
@@ -2159,402 +2158,402 @@
       <c r="D10">
         <v>92301782</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="G10" t="s">
         <v>55</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" t="s">
         <v>56</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="I10">
         <v>57101</v>
       </c>
-      <c r="J10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>58</v>
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>57</v>
       </c>
       <c r="L10">
         <v>420739280632</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" t="s">
+        <v>64</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
         <v>65</v>
       </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="Q10" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92301789</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>69</v>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="G11" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" t="s">
         <v>72</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I11">
         <v>70800</v>
       </c>
-      <c r="J11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>74</v>
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>73</v>
       </c>
       <c r="L11">
         <v>420603809949</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>59</v>
+      <c r="M11" t="s">
+        <v>58</v>
       </c>
       <c r="N11">
         <v>1</v>
       </c>
       <c r="O11" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="Q11" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>92301789</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>69</v>
+      <c r="B12" t="s">
+        <v>68</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="G12" t="s">
         <v>71</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" t="s">
         <v>72</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I12">
         <v>70800</v>
       </c>
-      <c r="J12" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>74</v>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>73</v>
       </c>
       <c r="L12">
         <v>420603809949</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>23</v>
+      <c r="M12" t="s">
+        <v>22</v>
       </c>
       <c r="N12">
         <v>1</v>
       </c>
       <c r="O12" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q12" t="s">
         <v>78</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>92301789</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>69</v>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" t="s">
         <v>72</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I13">
         <v>70800</v>
       </c>
-      <c r="J13" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>74</v>
+      <c r="J13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" t="s">
+        <v>73</v>
       </c>
       <c r="L13">
         <v>420603809949</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" t="s">
         <v>80</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="2" t="s">
+      <c r="Q13" t="s">
         <v>81</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>92301789</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>69</v>
+      <c r="B14" t="s">
+        <v>68</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="G14" t="s">
         <v>71</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" t="s">
         <v>72</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I14">
         <v>70800</v>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>74</v>
+      <c r="J14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" t="s">
+        <v>73</v>
       </c>
       <c r="L14">
         <v>420603809949</v>
       </c>
-      <c r="M14" s="2" t="s">
-        <v>49</v>
+      <c r="M14" t="s">
+        <v>48</v>
       </c>
       <c r="N14">
         <v>1</v>
       </c>
       <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s">
         <v>83</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="Q14" t="s">
         <v>84</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>92301789</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>69</v>
+      <c r="B15" t="s">
+        <v>68</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="G15" t="s">
         <v>71</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" t="s">
         <v>72</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I15">
         <v>70800</v>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>74</v>
+      <c r="J15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" t="s">
+        <v>73</v>
       </c>
       <c r="L15">
         <v>420603809949</v>
       </c>
-      <c r="M15" s="2" t="s">
-        <v>49</v>
+      <c r="M15" t="s">
+        <v>48</v>
       </c>
       <c r="N15">
         <v>1</v>
       </c>
       <c r="O15" t="s">
+        <v>85</v>
+      </c>
+      <c r="P15" t="s">
         <v>86</v>
       </c>
-      <c r="P15" s="2" t="s">
+      <c r="Q15" t="s">
         <v>87</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>92301789</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
+      <c r="B16" t="s">
+        <v>68</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" t="s">
         <v>71</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" t="s">
         <v>72</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I16">
         <v>70800</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>74</v>
+      <c r="J16" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" t="s">
+        <v>73</v>
       </c>
       <c r="L16">
         <v>420603809949</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>49</v>
+      <c r="M16" t="s">
+        <v>48</v>
       </c>
       <c r="N16">
         <v>1</v>
       </c>
       <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
         <v>89</v>
       </c>
-      <c r="P16" s="2" t="s">
+      <c r="Q16" t="s">
         <v>90</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>92301789</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
+      <c r="B17" t="s">
+        <v>68</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>69</v>
+      </c>
+      <c r="F17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" t="s">
         <v>72</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="I17">
         <v>70800</v>
       </c>
-      <c r="J17" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>74</v>
+      <c r="J17" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>73</v>
       </c>
       <c r="L17">
         <v>420603809949</v>
       </c>
-      <c r="M17" s="2" t="s">
-        <v>65</v>
+      <c r="M17" t="s">
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
       </c>
       <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s">
         <v>92</v>
       </c>
-      <c r="P17" s="2" t="s">
+      <c r="Q17" t="s">
         <v>93</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>92301795</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>95</v>
+      <c r="B18" t="s">
+        <v>94</v>
       </c>
       <c r="C18">
         <v>5383</v>
@@ -2562,52 +2561,52 @@
       <c r="D18">
         <v>92301795</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" t="s">
         <v>97</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" t="s">
         <v>98</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="I18">
         <v>74101</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>100</v>
+      <c r="J18" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>99</v>
       </c>
       <c r="L18">
         <v>420733249611</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" t="s">
+        <v>100</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="s">
         <v>101</v>
       </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>102</v>
       </c>
-      <c r="P18" s="2" t="s">
+      <c r="Q18" t="s">
         <v>103</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>92301795</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>95</v>
+      <c r="B19" t="s">
+        <v>94</v>
       </c>
       <c r="C19">
         <v>5383</v>
@@ -2615,252 +2614,252 @@
       <c r="D19">
         <v>92301795</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" t="s">
         <v>96</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="G19" t="s">
         <v>97</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" t="s">
         <v>98</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="I19">
         <v>74101</v>
       </c>
-      <c r="J19" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>100</v>
+      <c r="J19" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
       </c>
       <c r="L19">
         <v>420733249611</v>
       </c>
-      <c r="M19" s="2" t="s">
-        <v>65</v>
+      <c r="M19" t="s">
+        <v>64</v>
       </c>
       <c r="N19">
         <v>1</v>
       </c>
       <c r="O19" t="s">
+        <v>104</v>
+      </c>
+      <c r="P19" t="s">
         <v>105</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="Q19" t="s">
         <v>106</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>92301797</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>108</v>
+      <c r="B20" t="s">
+        <v>107</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
         <v>109</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="G20" t="s">
         <v>110</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" t="s">
         <v>111</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="I20">
         <v>67905</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>113</v>
+      <c r="J20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" t="s">
+        <v>112</v>
       </c>
       <c r="L20">
         <v>420608409489</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" t="s">
+        <v>113</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
         <v>114</v>
       </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20" t="s">
+      <c r="P20" t="s">
         <v>115</v>
       </c>
-      <c r="P20" s="2" t="s">
+      <c r="Q20" t="s">
         <v>116</v>
-      </c>
-      <c r="Q20" s="2" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>92301797</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>108</v>
+      <c r="B21" t="s">
+        <v>107</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
         <v>109</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="G21" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" t="s">
         <v>111</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="I21">
         <v>67905</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>113</v>
+      <c r="J21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>112</v>
       </c>
       <c r="L21">
         <v>420608409489</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>118</v>
+      <c r="M21" t="s">
+        <v>117</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21" t="s">
+        <v>118</v>
+      </c>
+      <c r="P21" t="s">
         <v>119</v>
       </c>
-      <c r="P21" s="2" t="s">
+      <c r="Q21" t="s">
         <v>120</v>
-      </c>
-      <c r="Q21" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>92301799</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>122</v>
+      <c r="B22" t="s">
+        <v>121</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>122</v>
+      </c>
+      <c r="F22" t="s">
         <v>123</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" t="s">
         <v>124</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" t="s">
         <v>125</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I22">
         <v>76901</v>
       </c>
-      <c r="J22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>127</v>
+      <c r="J22" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" t="s">
+        <v>126</v>
       </c>
       <c r="L22">
         <v>420608629873</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="s">
         <v>128</v>
       </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22" t="s">
-        <v>102</v>
-      </c>
-      <c r="P22" s="2" t="s">
+      <c r="Q22" t="s">
         <v>129</v>
-      </c>
-      <c r="Q22" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>92301799</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>122</v>
+      <c r="B23" t="s">
+        <v>121</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" t="s">
         <v>124</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" t="s">
         <v>125</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="I23">
         <v>76901</v>
       </c>
-      <c r="J23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>127</v>
+      <c r="J23" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" t="s">
+        <v>126</v>
       </c>
       <c r="L23">
         <v>420608629873</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" t="s">
+        <v>130</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23" t="s">
         <v>131</v>
       </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>132</v>
       </c>
-      <c r="P23" s="2" t="s">
+      <c r="Q23" t="s">
         <v>133</v>
-      </c>
-      <c r="Q23" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>92301807</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>135</v>
+      <c r="B24" t="s">
+        <v>134</v>
       </c>
       <c r="C24">
         <v>10203</v>
@@ -2868,52 +2867,52 @@
       <c r="D24">
         <v>92301807</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" t="s">
         <v>136</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" t="s">
         <v>137</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" t="s">
         <v>138</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I24">
         <v>69163</v>
       </c>
-      <c r="J24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>140</v>
+      <c r="J24" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" t="s">
+        <v>139</v>
       </c>
       <c r="L24">
         <v>420724277912</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" t="s">
+        <v>140</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24" t="s">
+        <v>101</v>
+      </c>
+      <c r="P24" t="s">
         <v>141</v>
       </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24" t="s">
-        <v>102</v>
-      </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" t="s">
         <v>142</v>
-      </c>
-      <c r="Q24" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>92301807</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>135</v>
+      <c r="B25" t="s">
+        <v>134</v>
       </c>
       <c r="C25">
         <v>10203</v>
@@ -2921,52 +2920,52 @@
       <c r="D25">
         <v>92301807</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" t="s">
         <v>136</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" t="s">
         <v>137</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H25" t="s">
         <v>138</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I25">
         <v>69163</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>140</v>
+      <c r="J25" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" t="s">
+        <v>139</v>
       </c>
       <c r="L25">
         <v>420724277912</v>
       </c>
-      <c r="M25" s="2" t="s">
-        <v>62</v>
+      <c r="M25" t="s">
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
       </c>
       <c r="O25" t="s">
-        <v>119</v>
-      </c>
-      <c r="P25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P25" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q25" t="s">
         <v>144</v>
-      </c>
-      <c r="Q25" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>92301807</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>135</v>
+      <c r="B26" t="s">
+        <v>134</v>
       </c>
       <c r="C26">
         <v>10203</v>
@@ -2974,52 +2973,52 @@
       <c r="D26">
         <v>92301807</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26" t="s">
         <v>136</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" t="s">
         <v>137</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="H26" t="s">
         <v>138</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I26">
         <v>69163</v>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>140</v>
+      <c r="J26" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" t="s">
+        <v>139</v>
       </c>
       <c r="L26">
         <v>420724277912</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26" t="s">
         <v>45</v>
       </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>46</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" t="s">
         <v>47</v>
-      </c>
-      <c r="Q26" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>92301807</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>135</v>
+      <c r="B27" t="s">
+        <v>134</v>
       </c>
       <c r="C27">
         <v>10203</v>
@@ -3027,52 +3026,52 @@
       <c r="D27">
         <v>92301807</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>135</v>
+      </c>
+      <c r="F27" t="s">
         <v>136</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" t="s">
         <v>137</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="H27" t="s">
         <v>138</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="I27">
         <v>69163</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>140</v>
+      <c r="J27" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" t="s">
+        <v>139</v>
       </c>
       <c r="L27">
         <v>420724277912</v>
       </c>
-      <c r="M27" s="2" t="s">
-        <v>65</v>
+      <c r="M27" t="s">
+        <v>64</v>
       </c>
       <c r="N27">
         <v>1</v>
       </c>
       <c r="O27" t="s">
-        <v>132</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="P27" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>92301815</v>
       </c>
-      <c r="B28" s="2" t="s">
-        <v>147</v>
+      <c r="B28" t="s">
+        <v>146</v>
       </c>
       <c r="C28">
         <v>4938</v>
@@ -3080,52 +3079,52 @@
       <c r="D28">
         <v>92301815</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" t="s">
         <v>148</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" t="s">
         <v>149</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="H28" t="s">
         <v>150</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="I28">
         <v>27743</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>152</v>
+      <c r="J28" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>151</v>
       </c>
       <c r="L28">
         <v>420736433616</v>
       </c>
-      <c r="M28" s="2" t="s">
-        <v>59</v>
+      <c r="M28" t="s">
+        <v>58</v>
       </c>
       <c r="N28">
         <v>1</v>
       </c>
       <c r="O28" t="s">
-        <v>102</v>
-      </c>
-      <c r="P28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P28" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q28" t="s">
         <v>153</v>
-      </c>
-      <c r="Q28" s="2" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>92301819</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>155</v>
+      <c r="B29" t="s">
+        <v>154</v>
       </c>
       <c r="C29">
         <v>10358</v>
@@ -3133,52 +3132,52 @@
       <c r="D29">
         <v>92301819</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
         <v>156</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" t="s">
         <v>158</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="I29">
         <v>56802</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>160</v>
+      <c r="J29" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" t="s">
+        <v>159</v>
       </c>
       <c r="L29">
         <v>420604652014</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" t="s">
+        <v>160</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>101</v>
+      </c>
+      <c r="P29" t="s">
         <v>161</v>
       </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29" t="s">
-        <v>102</v>
-      </c>
-      <c r="P29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>162</v>
-      </c>
-      <c r="Q29" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>92301819</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>155</v>
+      <c r="B30" t="s">
+        <v>154</v>
       </c>
       <c r="C30">
         <v>10358</v>
@@ -3186,52 +3185,52 @@
       <c r="D30">
         <v>92301819</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>155</v>
+      </c>
+      <c r="F30" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" t="s">
         <v>157</v>
       </c>
-      <c r="G30" s="2" t="s">
+      <c r="H30" t="s">
         <v>158</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="I30">
         <v>56802</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>160</v>
+      <c r="J30" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>159</v>
       </c>
       <c r="L30">
         <v>420604652014</v>
       </c>
-      <c r="M30" s="2" t="s">
-        <v>131</v>
+      <c r="M30" t="s">
+        <v>130</v>
       </c>
       <c r="N30">
         <v>1</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q30" s="2" t="s">
-        <v>107</v>
+        <v>104</v>
+      </c>
+      <c r="P30" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>92301829</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>165</v>
+      <c r="B31" t="s">
+        <v>164</v>
       </c>
       <c r="C31">
         <v>7238</v>
@@ -3239,52 +3238,52 @@
       <c r="D31">
         <v>92301829</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" t="s">
         <v>166</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" t="s">
         <v>168</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I31">
         <v>39501</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>170</v>
+      <c r="J31" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>169</v>
       </c>
       <c r="L31">
         <v>420724144254</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>41</v>
+      <c r="M31" t="s">
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
       </c>
       <c r="O31" t="s">
-        <v>102</v>
-      </c>
-      <c r="P31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="P31" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q31" t="s">
         <v>171</v>
-      </c>
-      <c r="Q31" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>92301829</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>165</v>
+      <c r="B32" t="s">
+        <v>164</v>
       </c>
       <c r="C32">
         <v>7238</v>
@@ -3292,202 +3291,202 @@
       <c r="D32">
         <v>92301829</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" t="s">
         <v>166</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" t="s">
         <v>167</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" t="s">
         <v>168</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="I32">
         <v>39501</v>
       </c>
-      <c r="J32" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>170</v>
+      <c r="J32" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" t="s">
+        <v>169</v>
       </c>
       <c r="L32">
         <v>420724144254</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>62</v>
+      <c r="M32" t="s">
+        <v>61</v>
       </c>
       <c r="N32">
         <v>1</v>
       </c>
       <c r="O32" t="s">
-        <v>119</v>
-      </c>
-      <c r="P32" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P32" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q32" t="s">
         <v>144</v>
-      </c>
-      <c r="Q32" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>92301858</v>
       </c>
-      <c r="B33" s="2" t="s">
-        <v>173</v>
+      <c r="B33" t="s">
+        <v>172</v>
       </c>
       <c r="C33">
         <v>0</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>173</v>
+      </c>
+      <c r="F33" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" t="s">
         <v>175</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" t="s">
         <v>176</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="I33">
         <v>34021</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>178</v>
+      <c r="J33" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>177</v>
       </c>
       <c r="L33">
         <v>420773930632</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" t="s">
+        <v>178</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>101</v>
+      </c>
+      <c r="P33" t="s">
         <v>179</v>
       </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33" t="s">
-        <v>102</v>
-      </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" t="s">
         <v>180</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>92301858</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>173</v>
+      <c r="B34" t="s">
+        <v>172</v>
       </c>
       <c r="C34">
         <v>0</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" t="s">
+        <v>173</v>
+      </c>
+      <c r="F34" t="s">
         <v>174</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" t="s">
         <v>175</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" t="s">
         <v>176</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="I34">
         <v>34021</v>
       </c>
-      <c r="J34" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>178</v>
+      <c r="J34" t="s">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>177</v>
       </c>
       <c r="L34">
         <v>420773930632</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>23</v>
+      <c r="M34" t="s">
+        <v>22</v>
       </c>
       <c r="N34">
         <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>119</v>
-      </c>
-      <c r="P34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P34" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q34" t="s">
         <v>182</v>
-      </c>
-      <c r="Q34" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>92301858</v>
       </c>
-      <c r="B35" s="2" t="s">
-        <v>173</v>
+      <c r="B35" t="s">
+        <v>172</v>
       </c>
       <c r="C35">
         <v>0</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>173</v>
+      </c>
+      <c r="F35" t="s">
         <v>174</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" t="s">
         <v>175</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" t="s">
         <v>176</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>177</v>
       </c>
       <c r="I35">
         <v>34021</v>
       </c>
-      <c r="J35" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>178</v>
+      <c r="J35" t="s">
+        <v>1</v>
+      </c>
+      <c r="K35" t="s">
+        <v>177</v>
       </c>
       <c r="L35">
         <v>420773930632</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>65</v>
+      <c r="M35" t="s">
+        <v>64</v>
       </c>
       <c r="N35">
         <v>1</v>
       </c>
       <c r="O35" t="s">
-        <v>132</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q35" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="P35" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>92301859</v>
       </c>
-      <c r="B36" s="2" t="s">
-        <v>184</v>
+      <c r="B36" t="s">
+        <v>183</v>
       </c>
       <c r="C36">
         <v>7038</v>
@@ -3495,52 +3494,52 @@
       <c r="D36">
         <v>92301859</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
         <v>185</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" t="s">
         <v>186</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" t="s">
         <v>187</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="I36">
         <v>38771</v>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>189</v>
+      <c r="J36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K36" t="s">
+        <v>188</v>
       </c>
       <c r="L36">
         <v>420602259670</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
         <v>41</v>
       </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-      <c r="O36" t="s">
+      <c r="P36" t="s">
         <v>42</v>
       </c>
-      <c r="P36" s="2" t="s">
+      <c r="Q36" t="s">
         <v>43</v>
-      </c>
-      <c r="Q36" s="2" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>92301859</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>184</v>
+      <c r="B37" t="s">
+        <v>183</v>
       </c>
       <c r="C37">
         <v>7038</v>
@@ -3548,702 +3547,702 @@
       <c r="D37">
         <v>92301859</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37" t="s">
         <v>185</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" t="s">
         <v>186</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" t="s">
         <v>187</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="I37">
         <v>38771</v>
       </c>
-      <c r="J37" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>189</v>
+      <c r="J37" t="s">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>188</v>
       </c>
       <c r="L37">
         <v>420602259670</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>190</v>
+      <c r="M37" t="s">
+        <v>189</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P37" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q37" t="s">
         <v>191</v>
-      </c>
-      <c r="Q37" s="2" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>92301862</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>193</v>
+      <c r="B38" t="s">
+        <v>192</v>
       </c>
       <c r="C38">
         <v>0</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
         <v>194</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" t="s">
         <v>195</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" t="s">
         <v>196</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="I38">
         <v>46804</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>198</v>
+      <c r="J38" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" t="s">
+        <v>197</v>
       </c>
       <c r="L38">
         <v>420725573049</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" t="s">
+        <v>198</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38" t="s">
+        <v>101</v>
+      </c>
+      <c r="P38" t="s">
         <v>199</v>
       </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-      <c r="O38" t="s">
-        <v>102</v>
-      </c>
-      <c r="P38" s="2" t="s">
+      <c r="Q38" t="s">
         <v>200</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>92301863</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>202</v>
+      <c r="B39" t="s">
+        <v>201</v>
       </c>
       <c r="C39">
         <v>0</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" t="s">
         <v>203</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" t="s">
         <v>204</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" t="s">
         <v>205</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I39">
         <v>25801</v>
       </c>
-      <c r="J39" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>207</v>
+      <c r="J39" t="s">
+        <v>1</v>
+      </c>
+      <c r="K39" t="s">
+        <v>206</v>
       </c>
       <c r="L39">
         <v>420722230385</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" t="s">
+        <v>207</v>
+      </c>
+      <c r="N39">
+        <v>1</v>
+      </c>
+      <c r="O39" t="s">
+        <v>114</v>
+      </c>
+      <c r="P39" t="s">
         <v>208</v>
       </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39" t="s">
-        <v>115</v>
-      </c>
-      <c r="P39" s="2" t="s">
+      <c r="Q39" t="s">
         <v>209</v>
-      </c>
-      <c r="Q39" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>92301863</v>
       </c>
-      <c r="B40" s="2" t="s">
-        <v>202</v>
+      <c r="B40" t="s">
+        <v>201</v>
       </c>
       <c r="C40">
         <v>0</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" t="s">
+        <v>202</v>
+      </c>
+      <c r="F40" t="s">
         <v>203</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" t="s">
         <v>204</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" t="s">
         <v>205</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I40">
         <v>25801</v>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>207</v>
+      <c r="J40" t="s">
+        <v>1</v>
+      </c>
+      <c r="K40" t="s">
+        <v>206</v>
       </c>
       <c r="L40">
         <v>420722230385</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" t="s">
+        <v>117</v>
+      </c>
+      <c r="N40">
+        <v>1</v>
+      </c>
+      <c r="O40" t="s">
         <v>118</v>
       </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>119</v>
       </c>
-      <c r="P40" s="2" t="s">
+      <c r="Q40" t="s">
         <v>120</v>
-      </c>
-      <c r="Q40" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>92301863</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>202</v>
+      <c r="B41" t="s">
+        <v>201</v>
       </c>
       <c r="C41">
         <v>0</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" t="s">
+        <v>202</v>
+      </c>
+      <c r="F41" t="s">
         <v>203</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" t="s">
         <v>204</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" t="s">
         <v>205</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I41">
         <v>25801</v>
       </c>
-      <c r="J41" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>207</v>
+      <c r="J41" t="s">
+        <v>1</v>
+      </c>
+      <c r="K41" t="s">
+        <v>206</v>
       </c>
       <c r="L41">
         <v>420722230385</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" t="s">
+        <v>210</v>
+      </c>
+      <c r="N41">
+        <v>1</v>
+      </c>
+      <c r="O41" t="s">
         <v>211</v>
       </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>212</v>
       </c>
-      <c r="P41" s="2" t="s">
+      <c r="Q41" t="s">
         <v>213</v>
-      </c>
-      <c r="Q41" s="2" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>92301863</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>202</v>
+      <c r="B42" t="s">
+        <v>201</v>
       </c>
       <c r="C42">
         <v>0</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" t="s">
+        <v>202</v>
+      </c>
+      <c r="F42" t="s">
         <v>203</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" t="s">
         <v>204</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" t="s">
         <v>205</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I42">
         <v>25801</v>
       </c>
-      <c r="J42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>207</v>
+      <c r="J42" t="s">
+        <v>1</v>
+      </c>
+      <c r="K42" t="s">
+        <v>206</v>
       </c>
       <c r="L42">
         <v>420722230385</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" t="s">
+        <v>214</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42" t="s">
+        <v>37</v>
+      </c>
+      <c r="P42" t="s">
         <v>215</v>
       </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42" t="s">
-        <v>38</v>
-      </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" t="s">
         <v>216</v>
-      </c>
-      <c r="Q42" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>92301863</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>202</v>
+      <c r="B43" t="s">
+        <v>201</v>
       </c>
       <c r="C43">
         <v>0</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>202</v>
+      </c>
+      <c r="F43" t="s">
         <v>203</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" t="s">
         <v>205</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I43">
         <v>25801</v>
       </c>
-      <c r="J43" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>207</v>
+      <c r="J43" t="s">
+        <v>1</v>
+      </c>
+      <c r="K43" t="s">
+        <v>206</v>
       </c>
       <c r="L43">
         <v>420722230385</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" t="s">
+        <v>217</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43" t="s">
         <v>218</v>
       </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43" t="s">
+      <c r="P43" t="s">
         <v>219</v>
       </c>
-      <c r="P43" s="2" t="s">
+      <c r="Q43" t="s">
         <v>220</v>
-      </c>
-      <c r="Q43" s="2" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>92301863</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>202</v>
+      <c r="B44" t="s">
+        <v>201</v>
       </c>
       <c r="C44">
         <v>0</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+      <c r="F44" t="s">
         <v>203</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" t="s">
         <v>204</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" t="s">
         <v>205</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="I44">
         <v>25801</v>
       </c>
-      <c r="J44" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>207</v>
+      <c r="J44" t="s">
+        <v>1</v>
+      </c>
+      <c r="K44" t="s">
+        <v>206</v>
       </c>
       <c r="L44">
         <v>420722230385</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>65</v>
+      <c r="M44" t="s">
+        <v>64</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
       <c r="O44" t="s">
+        <v>221</v>
+      </c>
+      <c r="P44" t="s">
         <v>222</v>
       </c>
-      <c r="P44" s="2" t="s">
+      <c r="Q44" t="s">
         <v>223</v>
-      </c>
-      <c r="Q44" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>92301864</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>225</v>
+      <c r="B45" t="s">
+        <v>224</v>
       </c>
       <c r="C45">
         <v>0</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" t="s">
         <v>226</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" t="s">
         <v>228</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="I45">
         <v>67181</v>
       </c>
-      <c r="J45" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>230</v>
+      <c r="J45" t="s">
+        <v>1</v>
+      </c>
+      <c r="K45" t="s">
+        <v>229</v>
       </c>
       <c r="L45">
         <v>420734591392</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>27</v>
+      <c r="M45" t="s">
+        <v>26</v>
       </c>
       <c r="N45">
         <v>1</v>
       </c>
       <c r="O45" t="s">
+        <v>230</v>
+      </c>
+      <c r="P45" t="s">
         <v>231</v>
       </c>
-      <c r="P45" s="2" t="s">
+      <c r="Q45" t="s">
         <v>232</v>
-      </c>
-      <c r="Q45" s="2" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>92301868</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>234</v>
+      <c r="B46" t="s">
+        <v>233</v>
       </c>
       <c r="C46">
         <v>0</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" t="s">
+        <v>234</v>
+      </c>
+      <c r="F46" t="s">
         <v>235</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" t="s">
         <v>236</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" t="s">
         <v>237</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I46">
         <v>28522</v>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>239</v>
+      <c r="J46" t="s">
+        <v>1</v>
+      </c>
+      <c r="K46" t="s">
+        <v>238</v>
       </c>
       <c r="L46">
         <v>420773493505</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" t="s">
+        <v>239</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>101</v>
+      </c>
+      <c r="P46" t="s">
         <v>240</v>
       </c>
-      <c r="N46">
-        <v>1</v>
-      </c>
-      <c r="O46" t="s">
-        <v>102</v>
-      </c>
-      <c r="P46" s="2" t="s">
+      <c r="Q46" t="s">
         <v>241</v>
-      </c>
-      <c r="Q46" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>92301868</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>234</v>
+      <c r="B47" t="s">
+        <v>233</v>
       </c>
       <c r="C47">
         <v>0</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" t="s">
+        <v>234</v>
+      </c>
+      <c r="F47" t="s">
         <v>235</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" t="s">
         <v>236</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" t="s">
         <v>237</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I47">
         <v>28522</v>
       </c>
-      <c r="J47" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>239</v>
+      <c r="J47" t="s">
+        <v>1</v>
+      </c>
+      <c r="K47" t="s">
+        <v>238</v>
       </c>
       <c r="L47">
         <v>420773493505</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>23</v>
+      <c r="M47" t="s">
+        <v>22</v>
       </c>
       <c r="N47">
         <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>119</v>
-      </c>
-      <c r="P47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P47" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q47" t="s">
         <v>182</v>
-      </c>
-      <c r="Q47" s="2" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>92301868</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>234</v>
+      <c r="B48" t="s">
+        <v>233</v>
       </c>
       <c r="C48">
         <v>0</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" t="s">
+        <v>234</v>
+      </c>
+      <c r="F48" t="s">
         <v>235</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" t="s">
         <v>236</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" t="s">
         <v>237</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I48">
         <v>28522</v>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>239</v>
+      <c r="J48" t="s">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>238</v>
       </c>
       <c r="L48">
         <v>420773493505</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" t="s">
+        <v>242</v>
+      </c>
+      <c r="N48">
+        <v>1</v>
+      </c>
+      <c r="O48" t="s">
+        <v>211</v>
+      </c>
+      <c r="P48" t="s">
         <v>243</v>
       </c>
-      <c r="N48">
-        <v>1</v>
-      </c>
-      <c r="O48" t="s">
-        <v>212</v>
-      </c>
-      <c r="P48" s="2" t="s">
+      <c r="Q48" t="s">
         <v>244</v>
-      </c>
-      <c r="Q48" s="2" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>92301868</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>234</v>
+      <c r="B49" t="s">
+        <v>233</v>
       </c>
       <c r="C49">
         <v>0</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>234</v>
+      </c>
+      <c r="F49" t="s">
         <v>235</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" t="s">
         <v>236</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" t="s">
         <v>237</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I49">
         <v>28522</v>
       </c>
-      <c r="J49" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K49" s="2" t="s">
-        <v>239</v>
+      <c r="J49" t="s">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>238</v>
       </c>
       <c r="L49">
         <v>420773493505</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>80</v>
+      <c r="M49" t="s">
+        <v>79</v>
       </c>
       <c r="N49">
         <v>1</v>
       </c>
       <c r="O49" t="s">
-        <v>119</v>
-      </c>
-      <c r="P49" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="P49" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q49" t="s">
         <v>246</v>
-      </c>
-      <c r="Q49" s="2" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>92301868</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>234</v>
+      <c r="B50" t="s">
+        <v>233</v>
       </c>
       <c r="C50">
         <v>0</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" t="s">
+        <v>234</v>
+      </c>
+      <c r="F50" t="s">
         <v>235</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" t="s">
         <v>236</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" t="s">
         <v>237</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="I50">
         <v>28522</v>
       </c>
-      <c r="J50" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K50" s="2" t="s">
-        <v>239</v>
+      <c r="J50" t="s">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>238</v>
       </c>
       <c r="L50">
         <v>420773493505</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>65</v>
+      <c r="M50" t="s">
+        <v>64</v>
       </c>
       <c r="N50">
         <v>1</v>
       </c>
       <c r="O50" t="s">
-        <v>132</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="P50" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>92301869</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>248</v>
+      <c r="B51" t="s">
+        <v>247</v>
       </c>
       <c r="C51">
         <v>6838</v>
@@ -4251,52 +4250,52 @@
       <c r="D51">
         <v>92301869</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" t="s">
+        <v>248</v>
+      </c>
+      <c r="F51" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" t="s">
         <v>250</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" t="s">
         <v>251</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="I51">
         <v>69181</v>
       </c>
-      <c r="J51" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>253</v>
+      <c r="J51" t="s">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>252</v>
       </c>
       <c r="L51">
         <v>420723303894</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>41</v>
+      <c r="M51" t="s">
+        <v>40</v>
       </c>
       <c r="N51">
         <v>1</v>
       </c>
       <c r="O51" t="s">
+        <v>253</v>
+      </c>
+      <c r="P51" t="s">
         <v>254</v>
       </c>
-      <c r="P51" s="2" t="s">
+      <c r="Q51" t="s">
         <v>255</v>
-      </c>
-      <c r="Q51" s="2" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>92301870</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>257</v>
+      <c r="B52" t="s">
+        <v>256</v>
       </c>
       <c r="C52">
         <v>5178</v>
@@ -4304,52 +4303,52 @@
       <c r="D52">
         <v>92301870</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" t="s">
+        <v>257</v>
+      </c>
+      <c r="F52" t="s">
         <v>258</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" t="s">
         <v>259</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" t="s">
         <v>260</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="I52">
         <v>73514</v>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K52" s="2" t="s">
-        <v>262</v>
+      <c r="J52" t="s">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>261</v>
       </c>
       <c r="L52">
         <v>420735223540</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>240</v>
+      <c r="M52" t="s">
+        <v>239</v>
       </c>
       <c r="N52">
         <v>1</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
-      </c>
-      <c r="P52" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q52" t="s">
         <v>263</v>
-      </c>
-      <c r="Q52" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>92301880</v>
       </c>
-      <c r="B53" s="2" t="s">
-        <v>265</v>
+      <c r="B53" t="s">
+        <v>264</v>
       </c>
       <c r="C53">
         <v>2528</v>
@@ -4357,52 +4356,52 @@
       <c r="D53">
         <v>92301880</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" t="s">
+        <v>265</v>
+      </c>
+      <c r="F53" t="s">
         <v>266</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" t="s">
         <v>267</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" t="s">
         <v>268</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>269</v>
       </c>
       <c r="I53">
         <v>33214</v>
       </c>
-      <c r="J53" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K53" s="2" t="s">
-        <v>270</v>
+      <c r="J53" t="s">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>269</v>
       </c>
       <c r="L53">
         <v>420721700956</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>45</v>
+      <c r="M53" t="s">
+        <v>44</v>
       </c>
       <c r="N53">
         <v>2</v>
       </c>
       <c r="O53" t="s">
+        <v>270</v>
+      </c>
+      <c r="P53" t="s">
         <v>271</v>
       </c>
-      <c r="P53" s="2" t="s">
+      <c r="Q53" t="s">
         <v>272</v>
-      </c>
-      <c r="Q53" s="2" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>92301884</v>
       </c>
-      <c r="B54" s="2" t="s">
-        <v>274</v>
+      <c r="B54" t="s">
+        <v>273</v>
       </c>
       <c r="C54">
         <v>4178</v>
@@ -4410,102 +4409,102 @@
       <c r="D54">
         <v>92301884</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" t="s">
+        <v>274</v>
+      </c>
+      <c r="F54" t="s">
         <v>275</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" t="s">
         <v>276</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" t="s">
         <v>277</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="I54">
         <v>41712</v>
       </c>
-      <c r="J54" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K54" s="2" t="s">
-        <v>279</v>
+      <c r="J54" t="s">
+        <v>1</v>
+      </c>
+      <c r="K54" t="s">
+        <v>278</v>
       </c>
       <c r="L54">
         <v>420775074040</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" t="s">
+        <v>279</v>
+      </c>
+      <c r="N54">
+        <v>1</v>
+      </c>
+      <c r="O54" t="s">
+        <v>101</v>
+      </c>
+      <c r="P54" t="s">
         <v>280</v>
       </c>
-      <c r="N54">
-        <v>1</v>
-      </c>
-      <c r="O54" t="s">
-        <v>102</v>
-      </c>
-      <c r="P54" s="2" t="s">
+      <c r="Q54" t="s">
         <v>281</v>
-      </c>
-      <c r="Q54" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>92301887</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>283</v>
+      <c r="B55" t="s">
+        <v>282</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" t="s">
+        <v>283</v>
+      </c>
+      <c r="F55" t="s">
         <v>284</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" t="s">
         <v>285</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" t="s">
         <v>286</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>287</v>
       </c>
       <c r="I55">
         <v>59101</v>
       </c>
-      <c r="J55" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="2" t="s">
-        <v>288</v>
+      <c r="J55" t="s">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>287</v>
       </c>
       <c r="L55">
         <v>420737940676</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M55" t="s">
+        <v>288</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
         <v>289</v>
       </c>
-      <c r="N55">
-        <v>1</v>
-      </c>
-      <c r="O55" t="s">
+      <c r="P55" t="s">
         <v>290</v>
       </c>
-      <c r="P55" s="2" t="s">
+      <c r="Q55" t="s">
         <v>291</v>
-      </c>
-      <c r="Q55" s="2" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>92301889</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>293</v>
+      <c r="B56" t="s">
+        <v>292</v>
       </c>
       <c r="C56">
         <v>6288</v>
@@ -4513,202 +4512,202 @@
       <c r="D56">
         <v>92301889</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" t="s">
         <v>295</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="H56" t="s">
         <v>296</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>297</v>
       </c>
       <c r="I56">
         <v>41301</v>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K56" s="2" t="s">
-        <v>298</v>
+      <c r="J56" t="s">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>297</v>
       </c>
       <c r="L56">
         <v>420725417094</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>240</v>
+      <c r="M56" t="s">
+        <v>239</v>
       </c>
       <c r="N56">
         <v>1</v>
       </c>
       <c r="O56" t="s">
-        <v>115</v>
-      </c>
-      <c r="P56" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="P56" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q56" t="s">
         <v>299</v>
-      </c>
-      <c r="Q56" s="2" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>92301890</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>301</v>
+      <c r="B57" t="s">
+        <v>300</v>
       </c>
       <c r="C57">
         <v>0</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+      <c r="F57" t="s">
         <v>302</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" t="s">
         <v>303</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" t="s">
         <v>304</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="I57">
         <v>37401</v>
       </c>
-      <c r="J57" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K57" s="2" t="s">
-        <v>306</v>
+      <c r="J57" t="s">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>305</v>
       </c>
       <c r="L57">
         <v>420607424997</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>240</v>
+      <c r="M57" t="s">
+        <v>239</v>
       </c>
       <c r="N57">
         <v>1</v>
       </c>
       <c r="O57" t="s">
-        <v>254</v>
-      </c>
-      <c r="P57" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="P57" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q57" t="s">
         <v>307</v>
-      </c>
-      <c r="Q57" s="2" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>92301891</v>
       </c>
-      <c r="B58" s="2" t="s">
-        <v>309</v>
+      <c r="B58" t="s">
+        <v>308</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
+        <v>309</v>
+      </c>
+      <c r="F58" t="s">
         <v>310</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" t="s">
         <v>311</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" t="s">
         <v>312</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="I58">
         <v>79812</v>
       </c>
-      <c r="J58" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K58" s="2" t="s">
-        <v>314</v>
+      <c r="J58" t="s">
+        <v>1</v>
+      </c>
+      <c r="K58" t="s">
+        <v>313</v>
       </c>
       <c r="L58">
         <v>420739668578</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" t="s">
+        <v>314</v>
+      </c>
+      <c r="N58">
+        <v>1</v>
+      </c>
+      <c r="O58" t="s">
         <v>315</v>
       </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58" t="s">
+      <c r="P58" t="s">
         <v>316</v>
       </c>
-      <c r="P58" s="2" t="s">
+      <c r="Q58" t="s">
         <v>317</v>
-      </c>
-      <c r="Q58" s="2" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>92301891</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>309</v>
+      <c r="B59" t="s">
+        <v>308</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>309</v>
+      </c>
+      <c r="F59" t="s">
         <v>310</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" t="s">
         <v>312</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="I59">
         <v>79812</v>
       </c>
-      <c r="J59" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K59" s="2" t="s">
-        <v>314</v>
+      <c r="J59" t="s">
+        <v>1</v>
+      </c>
+      <c r="K59" t="s">
+        <v>313</v>
       </c>
       <c r="L59">
         <v>420739668578</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" t="s">
+        <v>318</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
         <v>319</v>
       </c>
-      <c r="N59">
-        <v>1</v>
-      </c>
-      <c r="O59" t="s">
+      <c r="P59" t="s">
         <v>320</v>
       </c>
-      <c r="P59" s="2" t="s">
+      <c r="Q59" t="s">
         <v>321</v>
-      </c>
-      <c r="Q59" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>92301892</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>323</v>
+      <c r="B60" t="s">
+        <v>322</v>
       </c>
       <c r="C60">
         <v>10903</v>
@@ -4716,52 +4715,52 @@
       <c r="D60">
         <v>92301892</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" t="s">
+        <v>323</v>
+      </c>
+      <c r="F60" t="s">
         <v>324</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" t="s">
         <v>325</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" t="s">
         <v>326</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="I60">
         <v>68001</v>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>328</v>
+      <c r="J60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K60" t="s">
+        <v>327</v>
       </c>
       <c r="L60">
         <v>420731411418</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" t="s">
+        <v>328</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>101</v>
+      </c>
+      <c r="P60" t="s">
         <v>329</v>
       </c>
-      <c r="N60">
-        <v>1</v>
-      </c>
-      <c r="O60" t="s">
-        <v>102</v>
-      </c>
-      <c r="P60" s="2" t="s">
+      <c r="Q60" t="s">
         <v>330</v>
-      </c>
-      <c r="Q60" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>92301892</v>
       </c>
-      <c r="B61" s="2" t="s">
-        <v>323</v>
+      <c r="B61" t="s">
+        <v>322</v>
       </c>
       <c r="C61">
         <v>10903</v>
@@ -4769,52 +4768,52 @@
       <c r="D61">
         <v>92301892</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" t="s">
+        <v>323</v>
+      </c>
+      <c r="F61" t="s">
         <v>324</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" t="s">
         <v>325</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" t="s">
         <v>326</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="I61">
         <v>68001</v>
       </c>
-      <c r="J61" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K61" s="2" t="s">
-        <v>328</v>
+      <c r="J61" t="s">
+        <v>1</v>
+      </c>
+      <c r="K61" t="s">
+        <v>327</v>
       </c>
       <c r="L61">
         <v>420731411418</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>65</v>
+      <c r="M61" t="s">
+        <v>64</v>
       </c>
       <c r="N61">
         <v>1</v>
       </c>
       <c r="O61" t="s">
-        <v>132</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q61" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="P61" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>92301898</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>332</v>
+      <c r="B62" t="s">
+        <v>331</v>
       </c>
       <c r="C62">
         <v>4578</v>
@@ -4822,102 +4821,102 @@
       <c r="D62">
         <v>92301898</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" t="s">
+        <v>332</v>
+      </c>
+      <c r="F62" t="s">
         <v>333</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" t="s">
         <v>334</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" t="s">
         <v>335</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>336</v>
       </c>
       <c r="I62">
         <v>77900</v>
       </c>
-      <c r="J62" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>337</v>
+      <c r="J62" t="s">
+        <v>1</v>
+      </c>
+      <c r="K62" t="s">
+        <v>336</v>
       </c>
       <c r="L62">
         <v>420737073789</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" t="s">
+        <v>337</v>
+      </c>
+      <c r="N62">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
         <v>338</v>
       </c>
-      <c r="N62">
-        <v>1</v>
-      </c>
-      <c r="O62" t="s">
+      <c r="P62" t="s">
         <v>339</v>
       </c>
-      <c r="P62" s="2" t="s">
+      <c r="Q62" t="s">
         <v>340</v>
-      </c>
-      <c r="Q62" s="2" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>92301903</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>342</v>
+      <c r="B63" t="s">
+        <v>341</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>342</v>
+      </c>
+      <c r="F63" t="s">
         <v>343</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" t="s">
         <v>344</v>
       </c>
-      <c r="G63" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>336</v>
+      <c r="H63" t="s">
+        <v>335</v>
       </c>
       <c r="I63">
         <v>77900</v>
       </c>
-      <c r="J63" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K63" s="2" t="s">
-        <v>346</v>
+      <c r="J63" t="s">
+        <v>1</v>
+      </c>
+      <c r="K63" t="s">
+        <v>345</v>
       </c>
       <c r="L63">
         <v>420734630919</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" t="s">
+        <v>239</v>
+      </c>
+      <c r="N63">
+        <v>1</v>
+      </c>
+      <c r="O63" t="s">
+        <v>101</v>
+      </c>
+      <c r="P63" t="s">
         <v>240</v>
       </c>
-      <c r="N63">
-        <v>1</v>
-      </c>
-      <c r="O63" t="s">
-        <v>102</v>
-      </c>
-      <c r="P63" s="2" t="s">
+      <c r="Q63" t="s">
         <v>241</v>
-      </c>
-      <c r="Q63" s="2" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>92301912</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>347</v>
+      <c r="B64" t="s">
+        <v>346</v>
       </c>
       <c r="C64">
         <v>8487</v>
@@ -4925,52 +4924,52 @@
       <c r="D64">
         <v>92301912</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" t="s">
+        <v>347</v>
+      </c>
+      <c r="F64" t="s">
         <v>348</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" t="s">
         <v>349</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" t="s">
         <v>350</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="I64">
         <v>37011</v>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>352</v>
+      <c r="J64" t="s">
+        <v>1</v>
+      </c>
+      <c r="K64" t="s">
+        <v>351</v>
       </c>
       <c r="L64">
         <v>420775886302</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" t="s">
+        <v>352</v>
+      </c>
+      <c r="N64">
+        <v>1</v>
+      </c>
+      <c r="O64" t="s">
         <v>353</v>
       </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64" t="s">
+      <c r="P64" t="s">
         <v>354</v>
       </c>
-      <c r="P64" s="2" t="s">
+      <c r="Q64" t="s">
         <v>355</v>
-      </c>
-      <c r="Q64" s="2" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>92301912</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>347</v>
+      <c r="B65" t="s">
+        <v>346</v>
       </c>
       <c r="C65">
         <v>8487</v>
@@ -4978,52 +4977,52 @@
       <c r="D65">
         <v>92301912</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" t="s">
+        <v>347</v>
+      </c>
+      <c r="F65" t="s">
         <v>348</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" t="s">
         <v>349</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" t="s">
         <v>350</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="I65">
         <v>37011</v>
       </c>
-      <c r="J65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K65" s="2" t="s">
-        <v>352</v>
+      <c r="J65" t="s">
+        <v>1</v>
+      </c>
+      <c r="K65" t="s">
+        <v>351</v>
       </c>
       <c r="L65">
         <v>420775886302</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>23</v>
+      <c r="M65" t="s">
+        <v>22</v>
       </c>
       <c r="N65">
         <v>1</v>
       </c>
       <c r="O65" t="s">
-        <v>46</v>
-      </c>
-      <c r="P65" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P65" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q65" t="s">
         <v>78</v>
-      </c>
-      <c r="Q65" s="2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>92301912</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>347</v>
+      <c r="B66" t="s">
+        <v>346</v>
       </c>
       <c r="C66">
         <v>8487</v>
@@ -5031,52 +5030,52 @@
       <c r="D66">
         <v>92301912</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" t="s">
+        <v>347</v>
+      </c>
+      <c r="F66" t="s">
         <v>348</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" t="s">
         <v>349</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" t="s">
         <v>350</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="I66">
         <v>37011</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K66" s="2" t="s">
-        <v>352</v>
+      <c r="J66" t="s">
+        <v>1</v>
+      </c>
+      <c r="K66" t="s">
+        <v>351</v>
       </c>
       <c r="L66">
         <v>420775886302</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>118</v>
+      <c r="M66" t="s">
+        <v>117</v>
       </c>
       <c r="N66">
         <v>1</v>
       </c>
       <c r="O66" t="s">
-        <v>46</v>
-      </c>
-      <c r="P66" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P66" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q66" t="s">
         <v>357</v>
-      </c>
-      <c r="Q66" s="2" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>92301912</v>
       </c>
-      <c r="B67" s="2" t="s">
-        <v>347</v>
+      <c r="B67" t="s">
+        <v>346</v>
       </c>
       <c r="C67">
         <v>8487</v>
@@ -5084,152 +5083,152 @@
       <c r="D67">
         <v>92301912</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" t="s">
+        <v>347</v>
+      </c>
+      <c r="F67" t="s">
         <v>348</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" t="s">
         <v>349</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" t="s">
         <v>350</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>351</v>
       </c>
       <c r="I67">
         <v>37011</v>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K67" s="2" t="s">
-        <v>352</v>
+      <c r="J67" t="s">
+        <v>1</v>
+      </c>
+      <c r="K67" t="s">
+        <v>351</v>
       </c>
       <c r="L67">
         <v>420775886302</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" t="s">
+        <v>358</v>
+      </c>
+      <c r="N67">
+        <v>1</v>
+      </c>
+      <c r="O67" t="s">
         <v>359</v>
       </c>
-      <c r="N67">
-        <v>1</v>
-      </c>
-      <c r="O67" t="s">
+      <c r="P67" t="s">
         <v>360</v>
       </c>
-      <c r="P67" s="2" t="s">
+      <c r="Q67" t="s">
         <v>361</v>
-      </c>
-      <c r="Q67" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>92301913</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>363</v>
+      <c r="B68" t="s">
+        <v>362</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" t="s">
+        <v>363</v>
+      </c>
+      <c r="F68" t="s">
         <v>364</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" t="s">
         <v>365</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" t="s">
         <v>366</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="I68">
         <v>40003</v>
       </c>
-      <c r="J68" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K68" s="2" t="s">
-        <v>368</v>
+      <c r="J68" t="s">
+        <v>1</v>
+      </c>
+      <c r="K68" t="s">
+        <v>367</v>
       </c>
       <c r="L68">
         <v>420731983486</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" t="s">
+        <v>368</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68" t="s">
         <v>369</v>
       </c>
-      <c r="N68">
-        <v>1</v>
-      </c>
-      <c r="O68" t="s">
+      <c r="P68" t="s">
         <v>370</v>
       </c>
-      <c r="P68" s="2" t="s">
+      <c r="Q68" t="s">
         <v>371</v>
-      </c>
-      <c r="Q68" s="2" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>92301913</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>363</v>
+      <c r="B69" t="s">
+        <v>362</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" t="s">
+        <v>363</v>
+      </c>
+      <c r="F69" t="s">
         <v>364</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" t="s">
         <v>365</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" t="s">
         <v>366</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="I69">
         <v>40003</v>
       </c>
-      <c r="J69" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K69" s="2" t="s">
-        <v>368</v>
+      <c r="J69" t="s">
+        <v>1</v>
+      </c>
+      <c r="K69" t="s">
+        <v>367</v>
       </c>
       <c r="L69">
         <v>420731983486</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>65</v>
+      <c r="M69" t="s">
+        <v>64</v>
       </c>
       <c r="N69">
         <v>1</v>
       </c>
       <c r="O69" t="s">
+        <v>104</v>
+      </c>
+      <c r="P69" t="s">
         <v>105</v>
       </c>
-      <c r="P69" s="2" t="s">
+      <c r="Q69" t="s">
         <v>106</v>
-      </c>
-      <c r="Q69" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>92301920</v>
       </c>
-      <c r="B70" s="2" t="s">
-        <v>373</v>
+      <c r="B70" t="s">
+        <v>372</v>
       </c>
       <c r="C70">
         <v>3348</v>
@@ -5237,52 +5236,52 @@
       <c r="D70">
         <v>92301920</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" t="s">
+        <v>373</v>
+      </c>
+      <c r="F70" t="s">
         <v>374</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" t="s">
         <v>375</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" t="s">
         <v>376</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="I70">
         <v>41108</v>
       </c>
-      <c r="J70" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K70" s="2" t="s">
-        <v>378</v>
+      <c r="J70" t="s">
+        <v>1</v>
+      </c>
+      <c r="K70" t="s">
+        <v>377</v>
       </c>
       <c r="L70">
         <v>420720737919</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>218</v>
+      <c r="M70" t="s">
+        <v>217</v>
       </c>
       <c r="N70">
         <v>2</v>
       </c>
       <c r="O70" t="s">
+        <v>378</v>
+      </c>
+      <c r="P70" t="s">
         <v>379</v>
       </c>
-      <c r="P70" s="2" t="s">
+      <c r="Q70" t="s">
         <v>380</v>
-      </c>
-      <c r="Q70" s="2" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>92301940</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>382</v>
+      <c r="B71" t="s">
+        <v>381</v>
       </c>
       <c r="C71">
         <v>12858</v>
@@ -5290,52 +5289,52 @@
       <c r="D71">
         <v>92301940</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" t="s">
+        <v>382</v>
+      </c>
+      <c r="F71" t="s">
         <v>383</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" t="s">
         <v>384</v>
       </c>
-      <c r="G71" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>229</v>
+      <c r="H71" t="s">
+        <v>228</v>
       </c>
       <c r="I71">
         <v>67181</v>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K71" s="2" t="s">
-        <v>386</v>
+      <c r="J71" t="s">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>385</v>
       </c>
       <c r="L71">
         <v>420774980759</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" t="s">
+        <v>386</v>
+      </c>
+      <c r="N71">
+        <v>1</v>
+      </c>
+      <c r="O71" t="s">
         <v>387</v>
       </c>
-      <c r="N71">
-        <v>1</v>
-      </c>
-      <c r="O71" t="s">
+      <c r="P71" t="s">
         <v>388</v>
       </c>
-      <c r="P71" s="2" t="s">
+      <c r="Q71" t="s">
         <v>389</v>
-      </c>
-      <c r="Q71" s="2" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>92301945</v>
       </c>
-      <c r="B72" s="2" t="s">
-        <v>391</v>
+      <c r="B72" t="s">
+        <v>390</v>
       </c>
       <c r="C72">
         <v>14288</v>
@@ -5343,52 +5342,52 @@
       <c r="D72">
         <v>92301945</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" t="s">
+        <v>391</v>
+      </c>
+      <c r="F72" t="s">
         <v>392</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" t="s">
         <v>393</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="H72" t="s">
         <v>394</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I72">
         <v>76701</v>
       </c>
-      <c r="J72" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K72" s="2" t="s">
-        <v>396</v>
+      <c r="J72" t="s">
+        <v>1</v>
+      </c>
+      <c r="K72" t="s">
+        <v>395</v>
       </c>
       <c r="L72">
         <v>420777797303</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" t="s">
+        <v>396</v>
+      </c>
+      <c r="N72">
+        <v>1</v>
+      </c>
+      <c r="O72" t="s">
         <v>397</v>
       </c>
-      <c r="N72">
-        <v>1</v>
-      </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>398</v>
       </c>
-      <c r="P72" s="2" t="s">
+      <c r="Q72" t="s">
         <v>399</v>
-      </c>
-      <c r="Q72" s="2" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>92301945</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>391</v>
+      <c r="B73" t="s">
+        <v>390</v>
       </c>
       <c r="C73">
         <v>14288</v>
@@ -5396,52 +5395,52 @@
       <c r="D73">
         <v>92301945</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" t="s">
+        <v>391</v>
+      </c>
+      <c r="F73" t="s">
         <v>392</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" t="s">
         <v>393</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="H73" t="s">
         <v>394</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I73">
         <v>76701</v>
       </c>
-      <c r="J73" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K73" s="2" t="s">
-        <v>396</v>
+      <c r="J73" t="s">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>395</v>
       </c>
       <c r="L73">
         <v>420777797303</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" t="s">
+        <v>318</v>
+      </c>
+      <c r="N73">
+        <v>1</v>
+      </c>
+      <c r="O73" t="s">
         <v>319</v>
       </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73" t="s">
+      <c r="P73" t="s">
         <v>320</v>
       </c>
-      <c r="P73" s="2" t="s">
+      <c r="Q73" t="s">
         <v>321</v>
-      </c>
-      <c r="Q73" s="2" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>92301945</v>
       </c>
-      <c r="B74" s="2" t="s">
-        <v>391</v>
+      <c r="B74" t="s">
+        <v>390</v>
       </c>
       <c r="C74">
         <v>14288</v>
@@ -5449,44 +5448,44 @@
       <c r="D74">
         <v>92301945</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" t="s">
+        <v>391</v>
+      </c>
+      <c r="F74" t="s">
         <v>392</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" t="s">
         <v>393</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" t="s">
         <v>394</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="I74">
         <v>76701</v>
       </c>
-      <c r="J74" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="K74" s="2" t="s">
-        <v>396</v>
+      <c r="J74" t="s">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>395</v>
       </c>
       <c r="L74">
         <v>420777797303</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>131</v>
+      <c r="M74" t="s">
+        <v>130</v>
       </c>
       <c r="N74">
         <v>1</v>
       </c>
       <c r="O74" t="s">
-        <v>360</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="Q74" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
+      </c>
+      <c r="P74" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
